--- a/data/trans_bre/IP12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP12-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>-31,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>-11,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>-15,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-5,89%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,74</t>
+          <t>-6,67; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,75</t>
+          <t>-5,32; 3,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,06</t>
+          <t>-4,74; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,32</t>
+          <t>-4,9; 4,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 100,88</t>
+          <t>-62,75; 18,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 47,39</t>
+          <t>-51,31; 53,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 119,63</t>
+          <t>-53,01; 50,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 41,13</t>
+          <t>-44,89; 83,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,92%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-12,03%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,21</t>
+          <t>-2,65; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,13</t>
+          <t>-4,79; 2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,59</t>
+          <t>-2,72; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,42</t>
+          <t>-4,44; 2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 18,02</t>
+          <t>-41,83; 100,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 53,8</t>
+          <t>-49,46; 47,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 50,64</t>
+          <t>-39,47; 119,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 83,27</t>
+          <t>-44,47; 41,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP12-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>-9,35%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 5,54</t>
+          <t>-4,9; 6,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 7,39</t>
+          <t>-2,31; 8,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,83</t>
+          <t>-2,62; 8,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,96</t>
+          <t>-8,45; 6,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 111,76</t>
+          <t>-46,47; 119,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 101,44</t>
+          <t>-24,48; 140,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 196,96</t>
+          <t>-29,28; 209,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 111,63</t>
+          <t>-66,38; 136,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-20,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,92%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>51,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-3,93%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,21</t>
+          <t>-4,91; 1,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,13</t>
+          <t>-5,23; 3,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,59</t>
+          <t>-0,22; 8,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,42</t>
+          <t>-5,03; 4,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 18,02</t>
+          <t>-50,96; 36,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 53,8</t>
+          <t>-44,86; 49,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 50,64</t>
+          <t>-3,48; 156,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 83,27</t>
+          <t>-46,07; 67,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,98%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>-14,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>16,75%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,74</t>
+          <t>-3,78; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,75</t>
+          <t>-2,99; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,06</t>
+          <t>-5,71; 3,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,32</t>
+          <t>-3,01; 6,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,83; 100,88</t>
+          <t>-42,79; 163,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 47,39</t>
+          <t>-33,28; 174,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 119,63</t>
+          <t>-57,67; 69,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,47; 41,13</t>
+          <t>-35,38; 136,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>-36,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>-23,87%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,92</t>
+          <t>-2,47; 3,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,66</t>
+          <t>-7,33; 1,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,59</t>
+          <t>-3,62; 4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,99</t>
+          <t>-5,93; 1,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 34,59</t>
+          <t>-52,75; 167,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 38,39</t>
+          <t>-68,32; 20,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 66,05</t>
+          <t>-56,21; 145,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 29,6</t>
+          <t>-59,78; 25,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 2,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 2,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 3,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 1,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-29,25; 39,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,27; 35,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 69,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-33,02; 26,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP12-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 6,46</t>
+          <t>-4,57; 7,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,8</t>
+          <t>-2,62; 9,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 8,13</t>
+          <t>-1,88; 8,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 6,47</t>
+          <t>-8,07; 6,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 119,27</t>
+          <t>-43,63; 149,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 140,6</t>
+          <t>-24,75; 152,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 209,03</t>
+          <t>-25,81; 220,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 136,11</t>
+          <t>-64,18; 145,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,99</t>
+          <t>-5,42; 1,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,53</t>
+          <t>-5,37; 3,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,17</t>
+          <t>-0,31; 8,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,23</t>
+          <t>-4,73; 4,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 36,22</t>
+          <t>-55,55; 29,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 49,12</t>
+          <t>-47,59; 44,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 156,76</t>
+          <t>-5,8; 148,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 67,34</t>
+          <t>-45,5; 67,42</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 7,04</t>
+          <t>-4,23; 6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,92</t>
+          <t>-2,54; 7,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 3,39</t>
+          <t>-5,29; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,2</t>
+          <t>-3,38; 5,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 163,17</t>
+          <t>-47,11; 133,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 174,53</t>
+          <t>-33,35; 170,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,67; 69,03</t>
+          <t>-54,65; 60,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 136,25</t>
+          <t>-42,43; 118,1</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,46</t>
+          <t>-2,72; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 1,16</t>
+          <t>-7,58; 1,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,11</t>
+          <t>-3,56; 3,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 1,35</t>
+          <t>-5,71; 2,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 167,47</t>
+          <t>-53,32; 145,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,32; 20,68</t>
+          <t>-68,49; 25,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,21; 145,84</t>
+          <t>-55,13; 142,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 25,68</t>
+          <t>-58,02; 39,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,22</t>
+          <t>-2,29; 2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,54</t>
+          <t>-2,31; 2,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,77</t>
+          <t>-0,66; 3,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,74</t>
+          <t>-2,95; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 39,95</t>
+          <t>-30,76; 40,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 35,48</t>
+          <t>-23,83; 36,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 69,38</t>
+          <t>-9,09; 68,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 26,95</t>
+          <t>-32,24; 31,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP12-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>-11,84%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 7,34</t>
+          <t>-4,29; 6,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,35</t>
+          <t>-2,74; 9,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,52</t>
+          <t>-1,84; 8,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 6,49</t>
+          <t>-8,81; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 149,41</t>
+          <t>-45,75; 138,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,75; 152,2</t>
+          <t>-23,11; 142,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 220,05</t>
+          <t>-25,5; 241,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 145,84</t>
+          <t>-67,2; 127,57</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,93%</t>
+          <t>-5,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,81</t>
+          <t>-5,03; 1,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,22</t>
+          <t>-5,13; 3,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 8,24</t>
+          <t>-0,17; 8,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,24</t>
+          <t>-5,34; 4,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,55; 29,83</t>
+          <t>-52,02; 31,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,59; 44,12</t>
+          <t>-44,6; 48,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 148,33</t>
+          <t>-3,61; 155,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 67,42</t>
+          <t>-48,35; 70,65</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 6,83</t>
+          <t>-3,67; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 7,23</t>
+          <t>-3,01; 6,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 3,23</t>
+          <t>-5,61; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,67</t>
+          <t>-3,4; 6,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 133,28</t>
+          <t>-41,63; 159,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,35; 170,25</t>
+          <t>-36,67; 158,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 60,06</t>
+          <t>-57,2; 66,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 118,1</t>
+          <t>-35,96; 127,5</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>-28,66%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,55</t>
+          <t>-2,71; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,12</t>
+          <t>-7,55; 1,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 3,9</t>
+          <t>-3,62; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 2,11</t>
+          <t>-5,79; 1,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 145,2</t>
+          <t>-52,04; 127,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,49; 25,11</t>
+          <t>-69,16; 29,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,13; 142,05</t>
+          <t>-53,55; 170,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,02; 39,54</t>
+          <t>-61,63; 31,98</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>-8,4%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,16</t>
+          <t>-2,21; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,65</t>
+          <t>-2,15; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,82</t>
+          <t>-0,75; 3,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,02</t>
+          <t>-3,0; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 40,59</t>
+          <t>-29,64; 34,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 36,68</t>
+          <t>-22,12; 38,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 68,6</t>
+          <t>-10,04; 66,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 31,6</t>
+          <t>-33,8; 31,32</t>
         </is>
       </c>
     </row>
